--- a/outputs/기능 정의서.xlsx
+++ b/outputs/기능 정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\assignment\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A2EAF0-D3FF-4B63-AD5F-71A991139B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E9FB25-6075-4366-BAAB-5B4C94D5BB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3975" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{79148A6F-0264-404B-99B3-58C58C947591}"/>
   </bookViews>
@@ -245,6 +245,33 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>내가 빌린 책의 이력을 확인할 수 있음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-대여한 날짜와 반납해야하는 날짜를 명시 (남은 일 수도 명시)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>책을 대여할 때 아이디를 입력하여 대여할 수 있음</t>
     </r>
     <r>
@@ -261,12 +288,8 @@
 -재고가 없는 책을 대여하는 경우 "재고가 없습니다." 메시지 출력
 -존재하는 회원이고 재고도 남아있다면 "책이 대여되었습니다." 메시지 출력</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
@@ -274,19 +297,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>내가 빌린 책의 이력을 확인할 수 있음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
--대여한 날짜와 반납해야하는 날짜를 명시 (남은 일 수도 명시)</t>
+-존재하는 회원이고 재고가 남아있지만 자신의 아이디가 아니라면 "자신의 아이디로 대여를 진행해주세요." 메시지 출력</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39CB327-979F-4AC5-8068-D4056C6F5182}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -940,7 +952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -957,7 +969,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -977,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
